--- a/src/test/resources/test2.xlsx
+++ b/src/test/resources/test2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Oriol\Documents\aswGrupo\citizensLoader_i3b\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Loader_i1a\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,9 +16,6 @@
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -30,58 +27,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Nombre</t>
   </si>
   <si>
-    <t>90500084Y</t>
-  </si>
-  <si>
-    <t>C/ Federico García Lorca 2</t>
-  </si>
-  <si>
-    <t>Apellidos</t>
-  </si>
-  <si>
-    <t>Juan</t>
-  </si>
-  <si>
-    <t>Torres Pardo</t>
-  </si>
-  <si>
-    <t>DNI</t>
-  </si>
-  <si>
-    <t>Fecha nacimiento</t>
-  </si>
-  <si>
-    <t>Nacionalidad</t>
-  </si>
-  <si>
-    <t>Español</t>
-  </si>
-  <si>
     <t>Correo electrónico</t>
   </si>
   <si>
-    <t>juan@example.com</t>
-  </si>
-  <si>
-    <t>Dirección postal</t>
-  </si>
-  <si>
-    <t>NIF</t>
-  </si>
-  <si>
-    <t>pollingStation</t>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>jorge</t>
+  </si>
+  <si>
+    <t>locacalizacion</t>
+  </si>
+  <si>
+    <t>18:13:14:12S</t>
+  </si>
+  <si>
+    <t>jorge@email.es</t>
+  </si>
+  <si>
+    <t>ID4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +75,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A8759"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,10 +104,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -404,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,61 +405,37 @@
     <col min="5" max="5" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
       <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1">
-        <v>31330</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
     </row>

--- a/src/test/resources/test2.xlsx
+++ b/src/test/resources/test2.xlsx
@@ -44,9 +44,6 @@
     <t>jorge</t>
   </si>
   <si>
-    <t>locacalizacion</t>
-  </si>
-  <si>
     <t>18:13:14:12S</t>
   </si>
   <si>
@@ -54,6 +51,9 @@
   </si>
   <si>
     <t>ID4</t>
+  </si>
+  <si>
+    <t>localizacion</t>
   </si>
 </sst>
 </file>
@@ -395,7 +395,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,7 +410,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -427,13 +427,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="E2">
         <v>1</v>
